--- a/data/trans_orig/P36BPD01_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD01_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>532082</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>520997</v>
+        <v>521247</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>539641</v>
+        <v>538785</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9688407865891908</v>
+        <v>0.9688407865891909</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9486566781044103</v>
+        <v>0.949112604234548</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9826049762728986</v>
+        <v>0.9810475495051489</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>666</v>
@@ -762,19 +762,19 @@
         <v>472229</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>461921</v>
+        <v>462539</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>478939</v>
+        <v>478767</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9668688177433021</v>
+        <v>0.9668688177433019</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9457624966774859</v>
+        <v>0.9470289136166767</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9806071666440106</v>
+        <v>0.9802541984925852</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1203</v>
@@ -783,19 +783,19 @@
         <v>1004311</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>990106</v>
+        <v>991239</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1014084</v>
+        <v>1014144</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9679125613834296</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9542227570944616</v>
+        <v>0.9553144624038989</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9773313463567906</v>
+        <v>0.9773888667373192</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>17112</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9553</v>
+        <v>10409</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28197</v>
+        <v>27947</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03115921341080897</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0173950237271012</v>
+        <v>0.01895245049485109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05134332189558942</v>
+        <v>0.05088739576545234</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -833,19 +833,19 @@
         <v>16182</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9472</v>
+        <v>9644</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26490</v>
+        <v>25872</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03313118225669804</v>
+        <v>0.03313118225669803</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01939283335598943</v>
+        <v>0.01974580150741463</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05423750332251441</v>
+        <v>0.0529710863833224</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -854,19 +854,19 @@
         <v>33294</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23521</v>
+        <v>23461</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47499</v>
+        <v>46366</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03208743861657041</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02266865364320969</v>
+        <v>0.02261113326268099</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04577724290553925</v>
+        <v>0.04468553759610097</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>463270</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>452218</v>
+        <v>452750</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>470632</v>
+        <v>470981</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.964986422281728</v>
+        <v>0.9649864222817283</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9419653512492826</v>
+        <v>0.9430737399669686</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9803214007735968</v>
+        <v>0.9810481980983593</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>567</v>
@@ -979,19 +979,19 @@
         <v>405782</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>397951</v>
+        <v>397578</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>411774</v>
+        <v>412390</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9589714513983768</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9404653850303378</v>
+        <v>0.9395827339663141</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9731321004269297</v>
+        <v>0.9745874429249255</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1031</v>
@@ -1000,19 +1000,19 @@
         <v>869052</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>855250</v>
+        <v>856033</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>878750</v>
+        <v>879485</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9621685201060892</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9468874060817364</v>
+        <v>0.9477549553035984</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9729058962074807</v>
+        <v>0.973719273126821</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>16809</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9447</v>
+        <v>9098</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27861</v>
+        <v>27329</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03501357771827191</v>
+        <v>0.03501357771827192</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01967859922640324</v>
+        <v>0.01895180190164053</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0580346487507171</v>
+        <v>0.05692626003303134</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -1050,19 +1050,19 @@
         <v>17361</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11369</v>
+        <v>10753</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25192</v>
+        <v>25565</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.04102854860162315</v>
+        <v>0.04102854860162313</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02686789957307047</v>
+        <v>0.02541255707507445</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05953461496966233</v>
+        <v>0.0604172660336855</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>37</v>
@@ -1071,19 +1071,19 @@
         <v>34170</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>24472</v>
+        <v>23737</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47972</v>
+        <v>47189</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03783147989391081</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02709410379251933</v>
+        <v>0.02628072687317901</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05311259391826355</v>
+        <v>0.05224504469640154</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>445285</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>434925</v>
+        <v>434555</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>453642</v>
+        <v>452545</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9509642015573421</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9288397380767225</v>
+        <v>0.9280483087965179</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9688116152130378</v>
+        <v>0.9664678053062834</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>282</v>
@@ -1196,19 +1196,19 @@
         <v>182982</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>178667</v>
+        <v>179022</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>185423</v>
+        <v>185713</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9759209494797515</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9529037215718889</v>
+        <v>0.9547975272040666</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9889402524952184</v>
+        <v>0.9904877762757426</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>744</v>
@@ -1217,19 +1217,19 @@
         <v>628267</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>615575</v>
+        <v>616718</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>636371</v>
+        <v>636514</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9581001068688927</v>
+        <v>0.9581001068688928</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9387445343475149</v>
+        <v>0.9404865968669291</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9704576441345254</v>
+        <v>0.9706759109401044</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>22961</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14604</v>
+        <v>15701</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33321</v>
+        <v>33691</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.04903579844265785</v>
+        <v>0.04903579844265786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03118838478696211</v>
+        <v>0.03353219469371675</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07116026192327736</v>
+        <v>0.07195169120348212</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1267,19 +1267,19 @@
         <v>4515</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2074</v>
+        <v>1784</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8830</v>
+        <v>8475</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02407905052024851</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01105974750478153</v>
+        <v>0.00951222372425754</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04709627842811127</v>
+        <v>0.04520247279593354</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>30</v>
@@ -1288,19 +1288,19 @@
         <v>27476</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19372</v>
+        <v>19229</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>40168</v>
+        <v>39025</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04189989313110729</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02954235586547457</v>
+        <v>0.02932408905989563</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0612554656524851</v>
+        <v>0.05951340313307086</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>1045121</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1018540</v>
+        <v>1020507</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1062951</v>
+        <v>1065980</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.926490090207881</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9029264495716309</v>
+        <v>0.904670162908139</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9422962032061741</v>
+        <v>0.9449817019360346</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1151</v>
@@ -1413,19 +1413,19 @@
         <v>801375</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>787160</v>
+        <v>787232</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>815489</v>
+        <v>813782</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9328917677312532</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9163439959371812</v>
+        <v>0.9164279548991729</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.949322860160138</v>
+        <v>0.9473355276086863</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2202</v>
@@ -1434,19 +1434,19 @@
         <v>1846495</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1817920</v>
+        <v>1818369</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1869670</v>
+        <v>1870356</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9292575787778236</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9148768977861664</v>
+        <v>0.9151029110031218</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9409204528595689</v>
+        <v>0.9412658272602143</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>82922</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65092</v>
+        <v>62063</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>109503</v>
+        <v>107536</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07350990979211901</v>
+        <v>0.07350990979211902</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.057703796793826</v>
+        <v>0.05501829806396547</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09707355042836893</v>
+        <v>0.09532983709186123</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>77</v>
@@ -1484,19 +1484,19 @@
         <v>57647</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43533</v>
+        <v>45240</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>71862</v>
+        <v>71790</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0671082322687467</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05067713983986197</v>
+        <v>0.05266447239131369</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08365600406281895</v>
+        <v>0.08357204510082698</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>142</v>
@@ -1505,19 +1505,19 @@
         <v>140570</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>117395</v>
+        <v>116709</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>169145</v>
+        <v>168696</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07074242122217643</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05907954714043093</v>
+        <v>0.05873417273978542</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08512310221383346</v>
+        <v>0.08489708899687805</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>507505</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>490462</v>
+        <v>490182</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>522884</v>
+        <v>522024</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8951087659465451</v>
+        <v>0.895108765946545</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8650494847798209</v>
+        <v>0.864555070309153</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9222337860874551</v>
+        <v>0.9207170946883478</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1219</v>
@@ -1630,19 +1630,19 @@
         <v>778699</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>765135</v>
+        <v>763550</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>790341</v>
+        <v>789894</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9372316837580456</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9209068190360103</v>
+        <v>0.9189989356911801</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9512439092717409</v>
+        <v>0.9507056195125563</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1713</v>
@@ -1651,19 +1651,19 @@
         <v>1286204</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1263966</v>
+        <v>1264376</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1305374</v>
+        <v>1304296</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9201460908017367</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9042372640455417</v>
+        <v>0.9045304458785526</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9338604777575387</v>
+        <v>0.9330888051781367</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>59471</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44092</v>
+        <v>44952</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76514</v>
+        <v>76794</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.104891234053455</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07776621391254486</v>
+        <v>0.07928290531165229</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1349505152201789</v>
+        <v>0.1354449296908466</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>71</v>
@@ -1701,19 +1701,19 @@
         <v>52151</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40509</v>
+        <v>40956</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65715</v>
+        <v>67300</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06276831624195453</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04875609072825945</v>
+        <v>0.04929438048744365</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07909318096398958</v>
+        <v>0.08100106430881993</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>123</v>
@@ -1722,19 +1722,19 @@
         <v>111622</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>92452</v>
+        <v>93530</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>133860</v>
+        <v>133450</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07985390919826335</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06613952224246142</v>
+        <v>0.06691119482186338</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09576273595445868</v>
+        <v>0.09546955412144721</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>215735</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>199545</v>
+        <v>198957</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>225568</v>
+        <v>225110</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9272404877348005</v>
+        <v>0.9272404877348004</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8576565426039178</v>
+        <v>0.8551278052894725</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9695049191731715</v>
+        <v>0.9675353188990856</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1094</v>
@@ -1847,19 +1847,19 @@
         <v>787766</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>769613</v>
+        <v>764085</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>800304</v>
+        <v>799910</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9389756629511458</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9173387011372214</v>
+        <v>0.9107490314475378</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9539203497984167</v>
+        <v>0.9534512592449341</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1196</v>
@@ -1868,19 +1868,19 @@
         <v>1003500</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>980109</v>
+        <v>982582</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1019496</v>
+        <v>1020235</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9364278147414457</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9146002112778926</v>
+        <v>0.9169072734020962</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9513539385164513</v>
+        <v>0.9520436055020456</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>16928</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7095</v>
+        <v>7553</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33118</v>
+        <v>33706</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07275951226519947</v>
+        <v>0.07275951226519949</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03049508082682846</v>
+        <v>0.03246468110091436</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1423434573960821</v>
+        <v>0.1448721947105275</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -1918,19 +1918,19 @@
         <v>51197</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38659</v>
+        <v>39053</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>69350</v>
+        <v>74878</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06102433704885423</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04607965020158347</v>
+        <v>0.04654874075506598</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08266129886277869</v>
+        <v>0.08925096855246244</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>69</v>
@@ -1939,19 +1939,19 @@
         <v>68126</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>52130</v>
+        <v>51391</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>91517</v>
+        <v>89044</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0635721852585544</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04864606148354879</v>
+        <v>0.04795639449795423</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08539978872210663</v>
+        <v>0.08309272659790395</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>3208998</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3170751</v>
+        <v>3172555</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3244669</v>
+        <v>3239497</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9368784034051381</v>
+        <v>0.9368784034051378</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9257122504811628</v>
+        <v>0.9262387467525415</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9472926997853349</v>
+        <v>0.9457828117538439</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4979</v>
@@ -2064,19 +2064,19 @@
         <v>3428832</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3400606</v>
+        <v>3399245</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3455181</v>
+        <v>3453880</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9451325129218995</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9373521888275629</v>
+        <v>0.9369771217226123</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9523952689520947</v>
+        <v>0.9520366726612851</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8089</v>
@@ -2085,19 +2085,19 @@
         <v>6637830</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6596992</v>
+        <v>6597212</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6680535</v>
+        <v>6683066</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.941124056865412</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9353340576430585</v>
+        <v>0.9353652313029859</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9471788110113101</v>
+        <v>0.9475376871484785</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>216204</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>180533</v>
+        <v>185705</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>254451</v>
+        <v>252647</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.06312159659486197</v>
+        <v>0.06312159659486195</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05270730021466519</v>
+        <v>0.0542171882461563</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0742877495188375</v>
+        <v>0.07376125324745868</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>259</v>
@@ -2135,19 +2135,19 @@
         <v>199053</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>172704</v>
+        <v>174005</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>227279</v>
+        <v>228640</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05486748707810036</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04760473104790531</v>
+        <v>0.0479633273387148</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06264781117243715</v>
+        <v>0.06302287827738777</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>437</v>
@@ -2156,19 +2156,19 @@
         <v>415257</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>372552</v>
+        <v>370021</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>456095</v>
+        <v>455875</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05887594313458785</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05282118898868991</v>
+        <v>0.05246231285152154</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06466594235694155</v>
+        <v>0.0646347686970143</v>
       </c>
     </row>
     <row r="24">
